--- a/biology/Neurosciences/Bernhard_Hassenstein/Bernhard_Hassenstein.xlsx
+++ b/biology/Neurosciences/Bernhard_Hassenstein/Bernhard_Hassenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernhard Hassenstein, né le 31 mai 1922 à Potsdam, et mort le 16 avril 2016 à Fribourg-en-Brisgau[1], est un biologiste allemand et un Comportementaliste.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernhard Hassenstein, né le 31 mai 1922 à Potsdam, et mort le 16 avril 2016 à Fribourg-en-Brisgau, est un biologiste allemand et un Comportementaliste.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernhard Hassenstein est un étudiant du physiologiste comportemental Erich von Holst et l'un des principaux chercheurs dans les domaines de la biologie comportementale et de la bio-cybernétique. Son travail scientifique comprend des substantielles contributions pour la compréhension de la perception du mouvement chez les insectes et la vision des couleurs chez les humains.
 De 1939 à 1949, il étudie la biologie, la physique et la chimie à Berlin, Göttingen, et Heidelberg. Pendant son service militaire en 1943, il rencontre Werner Reichardt, qui finit par devenir son partenaire académique. En 1948, il travaille comme assistant à l'Institut Max-Planck de biologie marine à Wilhelmshaven. De 1954 à 1958, il travaille à l'Institut Zoophysiological de l'Université Eberhard Karl de Tübingen.
@@ -545,7 +559,9 @@
           <t>Membre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Heidelberg Academy for Sciences and Humanities (en), depuis 1961
 German Academy of Sciences Leopoldina, depuis 1965
@@ -577,7 +593,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>German Society of Pediatrics - Honorary Member (1975)
 Max Born Medal for Responsibility in Science (1981)
@@ -613,7 +631,9 @@
           <t>Œuvres écrites (sélection)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Goethe's morphology as self-critical science and current validity of their results. Weimar : Böhlau, 1950.
 Principles of comparative anatomy in Geoffroy Saint-Hilaire, Cuvier and Goethe 1958th
